--- a/outcome/simulate data/B_Measles.xlsx
+++ b/outcome/simulate data/B_Measles.xlsx
@@ -412,7 +412,7 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>93.1832725488751</v>
+        <v>102.984085304211</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -434,7 +434,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>91.043624661695</v>
+        <v>100.676793765097</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -456,7 +456,7 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>88.9531067627186</v>
+        <v>98.4211955942424</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -478,7 +478,7 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>86.9105907430851</v>
+        <v>96.2161326353079</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -500,7 +500,7 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>84.9149743972491</v>
+        <v>94.0604726796951</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -522,7 +522,7 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>82.965180828197</v>
+        <v>91.9531088852037</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -544,7 +544,7 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>81.0601578663187</v>
+        <v>89.8929592077139</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -566,7 +566,7 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>79.1988775016247</v>
+        <v>87.8789658456019</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -588,7 +588,7 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>77.3803353289991</v>
+        <v>85.9100946966017</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -610,7 +610,7 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>75.603550006192</v>
+        <v>83.9853348268373</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -632,7 +632,7 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>73.8675627242555</v>
+        <v>82.1036979517494</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -654,7 +654,7 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>72.1714366901413</v>
+        <v>80.2642179286522</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -676,7 +676,7 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>93.1832725488751</v>
+        <v>102.984085304211</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -698,7 +698,7 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>91.043624661695</v>
+        <v>100.676793765097</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -720,7 +720,7 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>88.9531067627186</v>
+        <v>98.4211955942424</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -742,7 +742,7 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>86.9105907430851</v>
+        <v>96.2161326353079</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -764,7 +764,7 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>84.9149743972491</v>
+        <v>94.0604726796951</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -786,7 +786,7 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>82.965180828197</v>
+        <v>91.9531088852037</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -808,7 +808,7 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>81.0601578663187</v>
+        <v>89.8929592077139</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -830,7 +830,7 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>79.1988775016247</v>
+        <v>87.8789658456019</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -852,7 +852,7 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>77.3803353289991</v>
+        <v>85.9100946966017</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -874,7 +874,7 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>75.603550006192</v>
+        <v>83.9853348268373</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -896,7 +896,7 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>73.8675627242555</v>
+        <v>82.1036979517494</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -918,7 +918,7 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>72.1714366901413</v>
+        <v>80.2642179286522</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -940,7 +940,7 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>93.1832725488751</v>
+        <v>102.984085304211</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -962,7 +962,7 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>91.043624661695</v>
+        <v>100.676793765097</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -984,7 +984,7 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>88.9531067627186</v>
+        <v>98.4211955942424</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1006,7 +1006,7 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>86.9105907430851</v>
+        <v>96.2161326353079</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1028,7 +1028,7 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>84.9149743972491</v>
+        <v>94.0604726796951</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1050,7 +1050,7 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>82.965180828197</v>
+        <v>91.9531088852037</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1072,7 +1072,7 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>81.0601578663187</v>
+        <v>89.8929592077139</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1094,7 +1094,7 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>79.1988775016247</v>
+        <v>87.8789658456019</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1116,7 +1116,7 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>77.3803353289991</v>
+        <v>85.9100946966017</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1138,7 +1138,7 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>75.603550006192</v>
+        <v>83.9853348268373</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1160,7 +1160,7 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>73.8675627242555</v>
+        <v>82.1036979517494</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1182,7 +1182,7 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>72.1714366901413</v>
+        <v>80.2642179286522</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
